--- a/kWh.xlsx
+++ b/kWh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\case.merrick\AppData\Local\Programs\Python\Python310\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C47B2B2-2ACD-4A30-A57A-C166C0DEF62D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869CF052-176B-451B-AA23-CF61B5D10C01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{58D18892-EA0C-47BE-8981-689783737A8C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="137">
   <si>
     <t>microwave</t>
   </si>
@@ -412,6 +412,30 @@
   </si>
   <si>
     <t>.1411</t>
+  </si>
+  <si>
+    <t>heater</t>
+  </si>
+  <si>
+    <t>space_heater</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>blender</t>
+  </si>
+  <si>
+    <t>freezer</t>
+  </si>
+  <si>
+    <t>monitor</t>
+  </si>
+  <si>
+    <t>echo</t>
+  </si>
+  <si>
+    <t>alexa</t>
   </si>
 </sst>
 </file>
@@ -776,7 +800,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,6 +1113,15 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1800</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1097,6 +1130,12 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1000</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
       </c>
@@ -1105,6 +1144,12 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="1">
+        <v>350</v>
+      </c>
       <c r="E22" s="2" t="s">
         <v>52</v>
       </c>
@@ -1113,6 +1158,12 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="1">
+        <v>440</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>53</v>
       </c>
@@ -1121,6 +1172,12 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="1">
+        <v>200</v>
+      </c>
       <c r="E24" s="2" t="s">
         <v>54</v>
       </c>
@@ -1129,6 +1186,15 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>55</v>
       </c>
